--- a/biology/Zoologie/Heinrich_Boie_(naturaliste)/Heinrich_Boie_(naturaliste).xlsx
+++ b/biology/Zoologie/Heinrich_Boie_(naturaliste)/Heinrich_Boie_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich ou Hendrik Boie est un naturaliste, né le 4 mai 1794 à Meldorf dans le duché de Holstein et mort le 4 septembre 1827 à Buitenzorg (aujourd'hui Bogor).
 Il suit les cours de l'anthropologue et biologiste allemand Johann Friedrich Blumenbach (1752-1840) à Göttingen puis de Friedrich Tiedemann (1781-1861) à Heidelberg. Coenraad Jacob Temminck (1778-1858), directeur du muséum d'histoire naturelle de Leyde, le nomme conservateur en 1821.
